--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.121020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Fall.121020.xlsx_with_dialog_acts.xlsx
@@ -769,12 +769,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4129,12 +4129,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4255,12 +4255,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4847,12 +4847,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5225,12 +5225,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6611,12 +6611,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6653,12 +6653,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7031,12 +7031,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7073,12 +7073,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7491,12 +7491,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7743,12 +7743,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7785,12 +7785,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8163,12 +8163,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8377,12 +8377,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8419,12 +8419,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8675,12 +8675,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8847,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8889,12 +8889,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9183,12 +9183,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9225,12 +9225,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9561,12 +9561,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9687,12 +9687,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9771,12 +9771,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10065,12 +10065,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11153,12 +11153,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11193,12 +11193,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12029,12 +12029,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12349,12 +12349,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12389,12 +12389,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13469,12 +13469,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13829,12 +13829,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13989,12 +13989,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14029,12 +14029,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14309,12 +14309,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14389,12 +14389,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14549,12 +14549,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14629,12 +14629,12 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14669,12 +14669,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14709,12 +14709,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14949,12 +14949,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15109,12 +15109,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15393,12 +15393,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15473,12 +15473,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15713,12 +15713,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16517,12 +16517,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17037,12 +17037,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17881,12 +17881,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17961,12 +17961,12 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18041,12 +18041,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18081,12 +18081,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18485,12 +18485,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18805,12 +18805,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19125,12 +19125,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19205,12 +19205,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19245,12 +19245,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19325,12 +19325,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19885,12 +19885,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20165,12 +20165,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20489,12 +20489,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20651,12 +20651,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20691,12 +20691,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21329,12 +21329,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21609,12 +21609,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21769,12 +21769,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21849,12 +21849,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22009,12 +22009,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22089,12 +22089,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22249,12 +22249,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22289,12 +22289,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22329,12 +22329,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22489,12 +22489,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23369,12 +23369,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23449,12 +23449,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24089,12 +24089,12 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25665,12 +25665,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25745,12 +25745,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26195,12 +26195,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26405,12 +26405,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26531,12 +26531,12 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27705,12 +27705,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27915,12 +27915,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28501,12 +28501,12 @@
       </c>
       <c r="I685" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28543,12 +28543,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28753,12 +28753,12 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29341,12 +29341,12 @@
       <c r="H705" t="inlineStr"/>
       <c r="I705" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29719,12 +29719,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29761,12 +29761,12 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29887,12 +29887,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30139,12 +30139,12 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30475,12 +30475,12 @@
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J732" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30517,12 +30517,12 @@
       <c r="H733" t="inlineStr"/>
       <c r="I733" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J733" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30727,12 +30727,12 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30769,12 +30769,12 @@
       <c r="H739" t="inlineStr"/>
       <c r="I739" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31063,12 +31063,12 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31357,12 +31357,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31777,12 +31777,12 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32155,12 +32155,12 @@
       <c r="H772" t="inlineStr"/>
       <c r="I772" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J772" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -32365,12 +32365,12 @@
       <c r="H777" t="inlineStr"/>
       <c r="I777" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J777" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -32449,12 +32449,12 @@
       <c r="H779" t="inlineStr"/>
       <c r="I779" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33247,12 +33247,12 @@
       <c r="H798" t="inlineStr"/>
       <c r="I798" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33671,12 +33671,12 @@
       <c r="H808" t="inlineStr"/>
       <c r="I808" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33713,12 +33713,12 @@
       <c r="H809" t="inlineStr"/>
       <c r="I809" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33881,12 +33881,12 @@
       <c r="H813" t="inlineStr"/>
       <c r="I813" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33965,12 +33965,12 @@
       <c r="H815" t="inlineStr"/>
       <c r="I815" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34007,12 +34007,12 @@
       <c r="H816" t="inlineStr"/>
       <c r="I816" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J816" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34343,12 +34343,12 @@
       <c r="H824" t="inlineStr"/>
       <c r="I824" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34427,12 +34427,12 @@
       <c r="H826" t="inlineStr"/>
       <c r="I826" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J826" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -34511,12 +34511,12 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J828" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -34637,12 +34637,12 @@
       <c r="H831" t="inlineStr"/>
       <c r="I831" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35057,12 +35057,12 @@
       <c r="H841" t="inlineStr"/>
       <c r="I841" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J841" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -35519,12 +35519,12 @@
       <c r="H852" t="inlineStr"/>
       <c r="I852" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -35561,12 +35561,12 @@
       <c r="H853" t="inlineStr"/>
       <c r="I853" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -35855,12 +35855,12 @@
       <c r="H860" t="inlineStr"/>
       <c r="I860" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -37409,12 +37409,12 @@
       <c r="H897" t="inlineStr"/>
       <c r="I897" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -37829,12 +37829,12 @@
       <c r="H907" t="inlineStr"/>
       <c r="I907" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J907" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38123,12 +38123,12 @@
       <c r="H914" t="inlineStr"/>
       <c r="I914" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38207,12 +38207,12 @@
       <c r="H916" t="inlineStr"/>
       <c r="I916" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J916" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38249,12 +38249,12 @@
       <c r="H917" t="inlineStr"/>
       <c r="I917" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -38459,12 +38459,12 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J922" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -38501,12 +38501,12 @@
       <c r="H923" t="inlineStr"/>
       <c r="I923" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>fc</t>
         </is>
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Conventional-closing</t>
         </is>
       </c>
     </row>
@@ -38543,12 +38543,12 @@
       <c r="H924" t="inlineStr"/>
       <c r="I924" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J924" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38665,12 +38665,12 @@
       <c r="H927" t="inlineStr"/>
       <c r="I927" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J927" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38705,12 +38705,12 @@
       <c r="H928" t="inlineStr"/>
       <c r="I928" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J928" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -38745,12 +38745,12 @@
       <c r="H929" t="inlineStr"/>
       <c r="I929" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38825,12 +38825,12 @@
       <c r="H931" t="inlineStr"/>
       <c r="I931" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J931" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -38905,12 +38905,12 @@
       <c r="H933" t="inlineStr"/>
       <c r="I933" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -38985,12 +38985,12 @@
       <c r="H935" t="inlineStr"/>
       <c r="I935" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39145,12 +39145,12 @@
       <c r="H939" t="inlineStr"/>
       <c r="I939" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39185,12 +39185,12 @@
       <c r="H940" t="inlineStr"/>
       <c r="I940" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -39225,12 +39225,12 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -39783,12 +39783,12 @@
       <c r="H955" t="inlineStr"/>
       <c r="I955" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J955" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -39863,12 +39863,12 @@
       <c r="H957" t="inlineStr"/>
       <c r="I957" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J957" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -39903,12 +39903,12 @@
       <c r="H958" t="inlineStr"/>
       <c r="I958" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J958" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -40663,12 +40663,12 @@
       <c r="H977" t="inlineStr"/>
       <c r="I977" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -40703,12 +40703,12 @@
       <c r="H978" t="inlineStr"/>
       <c r="I978" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40783,12 +40783,12 @@
       <c r="H980" t="inlineStr"/>
       <c r="I980" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -40823,12 +40823,12 @@
       <c r="H981" t="inlineStr"/>
       <c r="I981" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -40863,12 +40863,12 @@
       <c r="H982" t="inlineStr"/>
       <c r="I982" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -40983,12 +40983,12 @@
       <c r="H985" t="inlineStr"/>
       <c r="I985" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -41063,12 +41063,12 @@
       <c r="H987" t="inlineStr"/>
       <c r="I987" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -41183,12 +41183,12 @@
       <c r="H990" t="inlineStr"/>
       <c r="I990" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -41223,12 +41223,12 @@
       <c r="H991" t="inlineStr"/>
       <c r="I991" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
